--- a/template/template_Sales_Agreement_v1.xlsx
+++ b/template/template_Sales_Agreement_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_env\flask ml app\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F34EF1-6E46-4A35-97D5-BFD27E9B3BDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53D9E0B-A0A9-494E-BA16-9F3E4AF1C4F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{6C8B0641-7AAF-469A-B417-9AD5EA3DD4FF}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t>period of</t>
   </si>
   <si>
-    <t xml:space="preserve"> Client hereby appoints</t>
-  </si>
-  <si>
     <t>Subject to the terms of this Agreement</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>Sales Agreement</t>
+  </si>
+  <si>
+    <t>Client hereby appoints</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -641,10 +641,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -706,31 +706,31 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -741,34 +741,34 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -779,7 +779,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
@@ -788,21 +788,21 @@
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -813,21 +813,21 @@
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -840,16 +840,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>

--- a/template/template_Sales_Agreement_v1.xlsx
+++ b/template/template_Sales_Agreement_v1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_env\flask ml app\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53D9E0B-A0A9-494E-BA16-9F3E4AF1C4F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E94A6E1-887C-4041-B0C2-5B8DF5667144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{6C8B0641-7AAF-469A-B417-9AD5EA3DD4FF}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7460" xr2:uid="{6C8B0641-7AAF-469A-B417-9AD5EA3DD4FF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sales Category" sheetId="1" r:id="rId1"/>
+    <sheet name="Config_Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -603,7 +603,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
